--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="52">
   <si>
     <t xml:space="preserve">타겟 연령대</t>
   </si>
@@ -409,6 +409,9 @@
     <t xml:space="preserve">oldbed.mp4</t>
   </si>
   <si>
+    <t xml:space="preserve">snack.mp4</t>
+  </si>
+  <si>
     <t xml:space="preserve">livetv.mp4</t>
   </si>
   <si>
@@ -421,6 +424,9 @@
     <t xml:space="preserve">travelagency.mp4</t>
   </si>
   <si>
+    <t xml:space="preserve">teeth_medicine.mp4</t>
+  </si>
+  <si>
     <t xml:space="preserve">math.mp4</t>
   </si>
   <si>
@@ -434,6 +440,9 @@
   </si>
   <si>
     <t xml:space="preserve">insurance.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodyap.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">meetingapp.mp4</t>
@@ -464,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -492,6 +501,12 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="은 돋움"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -571,7 +586,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,7 +667,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -679,10 +726,8 @@
   </sheetPr>
   <dimension ref="B1:AL68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V41" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y43" activeCellId="0" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,17 +1123,20 @@
       <c r="T7" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="U7" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="V7" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W7" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z7" s="19" t="s">
         <v>26</v>
@@ -1097,7 +1145,7 @@
         <v>32</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="19" t="s">
         <v>23</v>
@@ -1144,13 +1192,15 @@
         <v>28</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB8" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1</v>
@@ -1172,10 +1222,10 @@
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>23</v>
@@ -1184,14 +1234,16 @@
         <v>31</v>
       </c>
       <c r="Z9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>1</v>
@@ -1207,10 +1259,10 @@
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W10" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>31</v>
@@ -1219,7 +1271,7 @@
         <v>26</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
@@ -1253,22 +1305,25 @@
         <v>9</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="V11" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="W11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="X11" s="6"/>
       <c r="Y11" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="18" t="s">
-        <v>35</v>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
@@ -1276,13 +1331,10 @@
       <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="N12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S12" s="6" t="n">
@@ -1294,10 +1346,10 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="Y12" s="19" t="s">
         <v>28</v>
@@ -1306,9 +1358,12 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="18" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>1</v>
@@ -1316,28 +1371,10 @@
       <c r="G13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4" t="n">
+      <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S13" s="6" t="n">
@@ -1349,21 +1386,21 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="18" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>1</v>
@@ -1374,6 +1411,12 @@
       <c r="H14" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="I14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" s="2" t="n">
         <v>1</v>
       </c>
@@ -1381,6 +1424,12 @@
         <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S14" s="6" t="n">
@@ -1392,21 +1441,24 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>1</v>
@@ -1414,22 +1466,13 @@
       <c r="H15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4" t="n">
+      <c r="N15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S15" s="6" t="n">
@@ -1441,32 +1484,44 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S16" s="6" t="n">
@@ -1478,26 +1533,29 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X16" s="19" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N17" s="2" t="n">
@@ -1511,31 +1569,23 @@
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="0"/>
+      <c r="W17" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="X17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y17" s="0"/>
+        <v>28</v>
+      </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
@@ -1549,22 +1599,35 @@
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="0"/>
+      <c r="W18" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="X18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y18" s="0"/>
+        <v>45</v>
+      </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S19" s="6" t="n">
@@ -1575,34 +1638,22 @@
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="W19" s="22"/>
       <c r="X19" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="18" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S20" s="6" t="n">
@@ -1613,34 +1664,34 @@
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
+      <c r="W20" s="22"/>
       <c r="X20" s="19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="F21" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="L21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M21" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="N21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S21" s="6" t="n">
@@ -1651,46 +1702,34 @@
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
+      <c r="W21" s="22"/>
       <c r="X21" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="18" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4" t="n">
+      <c r="L22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S22" s="6" t="n">
@@ -1703,26 +1742,44 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="19" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M23" s="2" t="n">
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S23" s="6" t="n">
@@ -1734,22 +1791,27 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="0"/>
+      <c r="X23" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S24" s="6" t="n">
@@ -1761,25 +1823,24 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="0"/>
+      <c r="X24" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S25" s="6" t="n">
@@ -1791,31 +1852,25 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
+      <c r="X25" s="22"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S26" s="6" t="n">
@@ -1827,14 +1882,14 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
+      <c r="X26" s="22"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>1</v>
@@ -1842,10 +1897,16 @@
       <c r="F27" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="M27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S27" s="6" t="n">
@@ -1857,22 +1918,25 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
+      <c r="X27" s="22"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="18" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="n">
+      <c r="M28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S28" s="6" t="n">
@@ -1889,12 +1953,9 @@
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>1</v>
@@ -1902,13 +1963,7 @@
       <c r="G29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2" t="n">
+      <c r="H29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="S29" s="6" t="n">
@@ -1918,9 +1973,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="18" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1</v>
@@ -1928,28 +1986,13 @@
       <c r="G30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4" t="n">
+      <c r="M30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S30" s="6" t="n">
@@ -1959,14 +2002,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="18" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="N31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S31" s="6" t="n">
@@ -1976,24 +2043,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="0"/>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="R32" s="0"/>
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="S32" s="6" t="n">
         <v>32</v>
       </c>
@@ -2001,9 +2060,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T34" s="20"/>
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="23"/>
       <c r="U34" s="11" t="s">
         <v>9</v>
       </c>
@@ -2029,8 +2131,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T35" s="21"/>
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="28"/>
+      <c r="T35" s="29"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
@@ -2040,24 +2159,7 @@
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="0"/>
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
-      <c r="R36" s="0"/>
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S36" s="6" t="n">
         <v>36</v>
       </c>
@@ -2132,6 +2234,9 @@
       <c r="T38" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="U38" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="V38" s="19" t="s">
         <v>20</v>
       </c>
@@ -2195,16 +2300,16 @@
         <v>5</v>
       </c>
       <c r="V40" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W40" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X40" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z40" s="19" t="s">
         <v>26</v>
@@ -2213,7 +2318,7 @@
         <v>32</v>
       </c>
       <c r="AB40" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
@@ -2226,13 +2331,13 @@
         <v>6</v>
       </c>
       <c r="V41" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W41" s="19" t="s">
         <v>24</v>
       </c>
       <c r="X41" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y41" s="19" t="s">
         <v>23</v>
@@ -2241,31 +2346,33 @@
         <v>28</v>
       </c>
       <c r="AA41" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB41" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="AB41" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="n">
         <f aca="false">SUM(C3:C41)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2" t="n">
         <f aca="false">SUM(D3:D41)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="n">
         <f aca="false">SUM(E3:E41)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42" s="3" t="n">
         <f aca="false">SUM(F3:F41)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G42" s="3" t="n">
         <f aca="false">SUM(G3:G41)</f>
@@ -2273,47 +2380,47 @@
       </c>
       <c r="H42" s="3" t="n">
         <f aca="false">SUM(H3:H41)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" s="3" t="n">
         <f aca="false">SUM(I3:I41)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J42" s="3" t="n">
         <f aca="false">SUM(J3:J41)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K42" s="2" t="n">
         <f aca="false">SUM(K3:K41)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" s="2" t="n">
         <f aca="false">SUM(L3:L41)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M42" s="2" t="n">
         <f aca="false">SUM(M3:M41)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N42" s="2" t="n">
         <f aca="false">SUM(N3:N41)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O42" s="2" t="n">
         <f aca="false">SUM(O3:O41)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P42" s="2" t="n">
         <f aca="false">SUM(P3:P41)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="2" t="n">
         <f aca="false">SUM(Q3:Q41)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R42" s="5" t="n">
         <f aca="false">SUM(R3:R41)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S42" s="6" t="n">
         <v>42</v>
@@ -2322,34 +2429,39 @@
         <v>7</v>
       </c>
       <c r="V42" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W42" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X42" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y42" s="19" t="s">
         <v>31</v>
       </c>
       <c r="Z42" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA42" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="AA42" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S43" s="6" t="n">
         <v>43</v>
       </c>
       <c r="T43" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="V43" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="W43" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X43" s="19" t="s">
         <v>23</v>
@@ -2358,14 +2470,14 @@
         <v>26</v>
       </c>
       <c r="Z43" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S44" s="6" t="n">
         <v>44</v>
       </c>
@@ -2374,21 +2486,23 @@
       </c>
       <c r="V44" s="6"/>
       <c r="W44" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X44" s="19" t="s">
         <v>31</v>
       </c>
       <c r="Y44" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z44" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="Z44" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S45" s="6" t="n">
         <v>45</v>
       </c>
@@ -2397,10 +2511,10 @@
       </c>
       <c r="V45" s="6"/>
       <c r="W45" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X45" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y45" s="19" t="s">
         <v>28</v>
@@ -2411,7 +2525,7 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S46" s="6" t="n">
         <v>46</v>
       </c>
@@ -2420,13 +2534,13 @@
       </c>
       <c r="V46" s="6"/>
       <c r="W46" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X46" s="19" t="s">
         <v>27</v>
       </c>
       <c r="Y46" s="19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
@@ -2434,7 +2548,7 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S47" s="6" t="n">
         <v>47</v>
       </c>
@@ -2443,13 +2557,13 @@
       </c>
       <c r="V47" s="6"/>
       <c r="W47" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X47" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y47" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
@@ -2457,7 +2571,7 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S48" s="6" t="n">
         <v>48</v>
       </c>
@@ -2466,13 +2580,13 @@
       </c>
       <c r="V48" s="6"/>
       <c r="W48" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X48" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y48" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
@@ -2480,7 +2594,7 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S49" s="6" t="n">
         <v>49</v>
       </c>
@@ -2489,13 +2603,13 @@
       </c>
       <c r="V49" s="6"/>
       <c r="W49" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X49" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Y49" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
@@ -2503,7 +2617,7 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S50" s="6" t="n">
         <v>50</v>
       </c>
@@ -2511,12 +2625,14 @@
         <v>15</v>
       </c>
       <c r="V50" s="6"/>
-      <c r="W50" s="0"/>
+      <c r="W50" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="X50" s="19" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Y50" s="19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
@@ -2524,7 +2640,7 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S51" s="6" t="n">
         <v>51</v>
       </c>
@@ -2532,18 +2648,19 @@
         <v>16</v>
       </c>
       <c r="V51" s="6"/>
-      <c r="W51" s="0"/>
+      <c r="W51" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="X51" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y51" s="0"/>
+        <v>45</v>
+      </c>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S52" s="6" t="n">
         <v>52</v>
       </c>
@@ -2551,18 +2668,18 @@
         <v>17</v>
       </c>
       <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
+      <c r="W52" s="22"/>
       <c r="X52" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y52" s="0"/>
+        <v>49</v>
+      </c>
+      <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S53" s="6" t="n">
         <v>53</v>
       </c>
@@ -2570,18 +2687,17 @@
         <v>18</v>
       </c>
       <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
+      <c r="W53" s="22"/>
       <c r="X53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S54" s="6" t="n">
         <v>54</v>
       </c>
@@ -2589,9 +2705,9 @@
         <v>19</v>
       </c>
       <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
+      <c r="W54" s="22"/>
       <c r="X54" s="19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
@@ -2600,7 +2716,7 @@
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S55" s="6" t="n">
         <v>55</v>
       </c>
@@ -2610,7 +2726,7 @@
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
       <c r="X55" s="19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
@@ -2619,7 +2735,7 @@
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S56" s="6" t="n">
         <v>56</v>
       </c>
@@ -2627,11 +2743,11 @@
         <v>21</v>
       </c>
       <c r="X56" s="19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Y56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S57" s="6" t="n">
         <v>57</v>
       </c>
@@ -2639,58 +2755,57 @@
         <v>22</v>
       </c>
       <c r="X57" s="19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Y57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S58" s="6" t="n">
         <v>58</v>
       </c>
       <c r="T58" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="X58" s="0"/>
+      <c r="X58" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="Y58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S59" s="6" t="n">
         <v>59</v>
       </c>
       <c r="T59" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="X59" s="6"/>
+      <c r="X59" s="22"/>
       <c r="Y59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S60" s="6" t="n">
         <v>60</v>
       </c>
       <c r="T60" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S61" s="6" t="n">
         <v>61</v>
       </c>
       <c r="T61" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S62" s="6" t="n">
         <v>62</v>
       </c>
       <c r="T62" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="X62" s="0"/>
       <c r="Y62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
